--- a/GB Accounts 2023-24/GB Accounts Employee Expenses 2024-04-05 (Apr24) Excel 2007/expensesform.xlsx
+++ b/GB Accounts 2023-24/GB Accounts Employee Expenses 2024-04-05 (Apr24) Excel 2007/expensesform.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10312"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Downloads\GB Accounts Company 2023-03-31 (Mar23) Excel 2007\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antony/projects/diy-accounting/GB Accounts 2023-24/GB Accounts Employee Expenses 2024-04-05 (Apr24) Excel 2007/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0E63C0-8268-4827-89AF-4F3937D69B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FD7946-BFF0-5B4E-A5AF-B035D652F190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11160" tabRatio="795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Month 01" sheetId="1" r:id="rId1"/>
@@ -191,15 +191,18 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -211,15 +214,18 @@
       <b/>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
@@ -499,6 +505,38 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -513,38 +551,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -890,102 +896,102 @@
   <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="0.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="0.83203125" style="1" customWidth="1"/>
     <col min="10" max="13" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="F5" s="55" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="F5" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="55"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="37">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="51">
-        <v>44652</v>
+        <v>45017</v>
       </c>
       <c r="H6" s="51"/>
     </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4"/>
       <c r="C7" s="5" t="s">
         <v>14</v>
@@ -995,14 +1001,14 @@
         <v>3</v>
       </c>
       <c r="G7" s="51">
-        <v>44681</v>
+        <v>45046</v>
       </c>
       <c r="H7" s="51"/>
     </row>
-    <row r="8" spans="1:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:13" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="34" t="s">
         <v>6</v>
       </c>
@@ -1040,7 +1046,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1072,7 +1078,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1104,7 +1110,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1136,7 +1142,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1168,7 +1174,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1200,7 +1206,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1232,7 +1238,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1264,7 +1270,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1296,7 +1302,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1328,7 +1334,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1360,7 +1366,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1392,7 +1398,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1424,7 +1430,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1456,7 +1462,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1488,7 +1494,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1520,7 +1526,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1552,7 +1558,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1584,7 +1590,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1616,7 +1622,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1648,7 +1654,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1680,7 +1686,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="9" t="str">
         <f>"Mileage Claim @ " &amp; TEXT(C30*100,0) &amp; "p"</f>
         <v>Mileage Claim @ 45p</v>
@@ -1721,7 +1727,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F31" s="8">
         <f>SUM(F10:F30)</f>
         <v>0</v>
@@ -1751,17 +1757,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-    </row>
-    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+    </row>
+    <row r="33" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B33" s="10"/>
       <c r="C33" s="52" t="s">
         <v>11</v>
@@ -1777,59 +1783,59 @@
       <c r="G33" s="49"/>
       <c r="H33" s="50"/>
     </row>
-    <row r="34" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-    </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="47" t="s">
+    <row r="34" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-    </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="47" t="s">
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+    </row>
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-    </row>
-    <row r="37" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+    </row>
+    <row r="37" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="45"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="45"/>
-    </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F38" s="47"/>
+    </row>
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="46" t="s">
         <v>19</v>
       </c>
@@ -1840,13 +1846,13 @@
       <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="45"/>
-    </row>
-    <row r="41" spans="1:8" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F40" s="47"/>
+    </row>
+    <row r="41" spans="1:8" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="32" t="s">
         <v>29</v>
       </c>
@@ -1859,27 +1865,27 @@
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="42" t="s">
+      <c r="G42" s="56" t="s">
         <v>35</v>
       </c>
       <c r="H42" s="28"/>
     </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="26"/>
       <c r="B43" s="27"/>
-      <c r="G43" s="41"/>
+      <c r="G43" s="55"/>
       <c r="H43" s="29"/>
     </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="17">
         <f>IF(G7&gt;0,G7," ")</f>
-        <v>44681</v>
-      </c>
-      <c r="B44" s="45" t="str">
+        <v>45046</v>
+      </c>
+      <c r="B44" s="47" t="str">
         <f>IF(B5&gt;0,B5," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C44" s="45"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="1" t="s">
         <v>23</v>
       </c>
@@ -1889,7 +1895,7 @@
       </c>
       <c r="H44" s="18"/>
     </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="19"/>
       <c r="D45" s="1" t="s">
         <v>24</v>
@@ -1900,19 +1906,19 @@
       </c>
       <c r="H45" s="18"/>
     </row>
-    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="19"/>
       <c r="D46" s="1" t="s">
         <v>25</v>
       </c>
       <c r="H46" s="18"/>
     </row>
-    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="19"/>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="45"/>
+      <c r="E47" s="47"/>
       <c r="F47" s="24" t="str">
         <f>IF(J31&gt;0,J31," ")</f>
         <v xml:space="preserve"> </v>
@@ -1922,12 +1928,12 @@
       </c>
       <c r="H47" s="18"/>
     </row>
-    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="19"/>
-      <c r="D48" s="45" t="s">
+      <c r="D48" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="45"/>
+      <c r="E48" s="47"/>
       <c r="F48" s="24" t="str">
         <f>IF(K31&gt;0,K31," ")</f>
         <v xml:space="preserve"> </v>
@@ -1937,13 +1943,13 @@
       </c>
       <c r="H48" s="18"/>
     </row>
-    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="19"/>
       <c r="C49" s="30"/>
-      <c r="D49" s="45" t="s">
+      <c r="D49" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="45"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="24" t="str">
         <f>IF(L31&gt;0,L31," ")</f>
         <v xml:space="preserve"> </v>
@@ -1953,33 +1959,33 @@
       </c>
       <c r="H49" s="18"/>
     </row>
-    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="19"/>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="54" t="s">
         <v>34</v>
       </c>
       <c r="C50" s="30"/>
-      <c r="D50" s="45" t="s">
+      <c r="D50" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="45"/>
+      <c r="E50" s="47"/>
       <c r="F50" s="24" t="str">
         <f>IF(M31&gt;0,M31," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G50" s="43" t="s">
+      <c r="G50" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="H50" s="44"/>
-    </row>
-    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H50" s="58"/>
+    </row>
+    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="19"/>
-      <c r="B51" s="41"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="30"/>
       <c r="F51" s="24"/>
       <c r="H51" s="18"/>
     </row>
-    <row r="52" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A52" s="20"/>
       <c r="B52" s="31"/>
       <c r="C52" s="31"/>
@@ -1991,11 +1997,14 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="E40:F40"/>
@@ -2010,14 +2019,11 @@
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C33:D33"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -2041,107 +2047,107 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="0.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="0.83203125" style="1" customWidth="1"/>
     <col min="10" max="13" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="48" t="str">
+      <c r="B5" s="42" t="str">
         <f>IF('Month 09'!B5:D5&gt;0,'Month 09'!B5:D5,"")</f>
         <v/>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="F5" s="55" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="F5" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="55"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="37">
         <f>'Month 09'!H5</f>
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="str">
+      <c r="B6" s="42" t="str">
         <f>IF('Month 09'!B6:D6&gt;0,'Month 09'!B6:D6,"")</f>
         <v/>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="51">
         <f>DATE(YEAR('Month 09'!G6),MONTH('Month 09'!G6)+1,1)</f>
-        <v>44927</v>
+        <v>45292</v>
       </c>
       <c r="H6" s="51"/>
     </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="str">
         <f>IF('Month 09'!B7&gt;0,'Month 09'!B7,"")</f>
         <v/>
@@ -2158,12 +2164,12 @@
       </c>
       <c r="G7" s="51">
         <f>DATE(YEAR(G6),MONTH(G6),DAY(DATE(YEAR(G6),MONTH(G6)+1,1)-1))</f>
-        <v>44957</v>
+        <v>45322</v>
       </c>
       <c r="H7" s="51"/>
     </row>
-    <row r="8" spans="1:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:13" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:13" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="34" t="s">
         <v>6</v>
       </c>
@@ -2201,7 +2207,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2233,7 +2239,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2265,7 +2271,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2297,7 +2303,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2329,7 +2335,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2361,7 +2367,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2393,7 +2399,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2425,7 +2431,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2457,7 +2463,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2489,7 +2495,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2521,7 +2527,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2553,7 +2559,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2585,7 +2591,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2617,7 +2623,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2649,7 +2655,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2681,7 +2687,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2713,7 +2719,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2745,7 +2751,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2777,7 +2783,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2809,7 +2815,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2841,7 +2847,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="9" t="str">
         <f>"Mileage Claim @ " &amp; TEXT(C30*100,0) &amp; "p"</f>
         <v>Mileage Claim @ 45p</v>
@@ -2883,7 +2889,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F31" s="8">
         <f>SUM(F10:F30)</f>
         <v>0</v>
@@ -2913,17 +2919,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-    </row>
-    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+    </row>
+    <row r="33" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B33" s="10"/>
       <c r="C33" s="52" t="s">
         <v>11</v>
@@ -2939,59 +2945,59 @@
       <c r="G33" s="59"/>
       <c r="H33" s="50"/>
     </row>
-    <row r="34" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-    </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="47" t="s">
+    <row r="34" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-    </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="47" t="s">
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+    </row>
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-    </row>
-    <row r="37" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+    </row>
+    <row r="37" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="45"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="45"/>
-    </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F38" s="47"/>
+    </row>
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="46" t="s">
         <v>19</v>
       </c>
@@ -3002,13 +3008,13 @@
       <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="45"/>
-    </row>
-    <row r="41" spans="1:8" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F40" s="47"/>
+    </row>
+    <row r="41" spans="1:8" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="32" t="s">
         <v>29</v>
       </c>
@@ -3021,27 +3027,27 @@
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="42" t="s">
+      <c r="G42" s="56" t="s">
         <v>35</v>
       </c>
       <c r="H42" s="28"/>
     </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="26"/>
       <c r="B43" s="27"/>
-      <c r="G43" s="41"/>
+      <c r="G43" s="55"/>
       <c r="H43" s="29"/>
     </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="17">
         <f>IF(G7&gt;0,G7," ")</f>
-        <v>44957</v>
-      </c>
-      <c r="B44" s="45" t="str">
+        <v>45322</v>
+      </c>
+      <c r="B44" s="47" t="str">
         <f>IF(B5&gt;0,B5," ")</f>
         <v/>
       </c>
-      <c r="C44" s="45"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="1" t="s">
         <v>23</v>
       </c>
@@ -3051,7 +3057,7 @@
       </c>
       <c r="H44" s="18"/>
     </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="19"/>
       <c r="D45" s="1" t="s">
         <v>24</v>
@@ -3062,19 +3068,19 @@
       </c>
       <c r="H45" s="18"/>
     </row>
-    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="19"/>
       <c r="D46" s="1" t="s">
         <v>25</v>
       </c>
       <c r="H46" s="18"/>
     </row>
-    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="19"/>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="45"/>
+      <c r="E47" s="47"/>
       <c r="F47" s="24" t="str">
         <f>IF(J31&gt;0,J31," ")</f>
         <v xml:space="preserve"> </v>
@@ -3084,12 +3090,12 @@
       </c>
       <c r="H47" s="18"/>
     </row>
-    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="19"/>
-      <c r="D48" s="45" t="s">
+      <c r="D48" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="45"/>
+      <c r="E48" s="47"/>
       <c r="F48" s="24" t="str">
         <f>IF(K31&gt;0,K31," ")</f>
         <v xml:space="preserve"> </v>
@@ -3099,13 +3105,13 @@
       </c>
       <c r="H48" s="18"/>
     </row>
-    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="19"/>
       <c r="C49" s="30"/>
-      <c r="D49" s="45" t="s">
+      <c r="D49" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="45"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="24" t="str">
         <f>IF(L31&gt;0,L31," ")</f>
         <v xml:space="preserve"> </v>
@@ -3115,33 +3121,33 @@
       </c>
       <c r="H49" s="18"/>
     </row>
-    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="19"/>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="54" t="s">
         <v>34</v>
       </c>
       <c r="C50" s="30"/>
-      <c r="D50" s="45" t="s">
+      <c r="D50" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="45"/>
+      <c r="E50" s="47"/>
       <c r="F50" s="24" t="str">
         <f>IF(M31&gt;0,M31," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G50" s="43" t="s">
+      <c r="G50" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="H50" s="44"/>
-    </row>
-    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H50" s="58"/>
+    </row>
+    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="19"/>
-      <c r="B51" s="41"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="30"/>
       <c r="F51" s="24"/>
       <c r="H51" s="18"/>
     </row>
-    <row r="52" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A52" s="20"/>
       <c r="B52" s="31"/>
       <c r="C52" s="31"/>
@@ -3153,16 +3159,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="D50:E50"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="G42:G43"/>
@@ -3174,12 +3176,16 @@
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="A35:G35"/>
     <mergeCell ref="A36:G36"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -3200,107 +3206,107 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="0.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="0.83203125" style="1" customWidth="1"/>
     <col min="10" max="13" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="48" t="str">
+      <c r="B5" s="42" t="str">
         <f>IF('Month 10'!B5:D5&gt;0,'Month 10'!B5:D5,"")</f>
         <v/>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="F5" s="55" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="F5" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="55"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="37">
         <f>'Month 10'!H5</f>
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="str">
+      <c r="B6" s="42" t="str">
         <f>IF('Month 10'!B6:D6&gt;0,'Month 10'!B6:D6,"")</f>
         <v/>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="51">
         <f>DATE(YEAR('Month 10'!G6),MONTH('Month 10'!G6)+1,1)</f>
-        <v>44958</v>
+        <v>45323</v>
       </c>
       <c r="H6" s="51"/>
     </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="str">
         <f>IF('Month 10'!B7&gt;0,'Month 10'!B7,"")</f>
         <v/>
@@ -3317,12 +3323,12 @@
       </c>
       <c r="G7" s="51">
         <f>DATE(YEAR(G6),MONTH(G6),DAY(DATE(YEAR(G6),MONTH(G6)+1,1)-1))</f>
-        <v>44985</v>
+        <v>45351</v>
       </c>
       <c r="H7" s="51"/>
     </row>
-    <row r="8" spans="1:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:13" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:13" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="34" t="s">
         <v>6</v>
       </c>
@@ -3360,7 +3366,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -3392,7 +3398,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -3424,7 +3430,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -3456,7 +3462,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -3488,7 +3494,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3520,7 +3526,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -3552,7 +3558,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -3584,7 +3590,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3616,7 +3622,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3648,7 +3654,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3680,7 +3686,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3712,7 +3718,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3744,7 +3750,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3776,7 +3782,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3808,7 +3814,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3840,7 +3846,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3872,7 +3878,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3904,7 +3910,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3936,7 +3942,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3968,7 +3974,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4000,7 +4006,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="9" t="str">
         <f>"Mileage Claim @ " &amp; TEXT(C30*100,0) &amp; "p"</f>
         <v>Mileage Claim @ 45p</v>
@@ -4042,7 +4048,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F31" s="8">
         <f>SUM(F10:F30)</f>
         <v>0</v>
@@ -4072,17 +4078,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-    </row>
-    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+    </row>
+    <row r="33" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B33" s="10"/>
       <c r="C33" s="52" t="s">
         <v>11</v>
@@ -4098,59 +4104,59 @@
       <c r="G33" s="59"/>
       <c r="H33" s="50"/>
     </row>
-    <row r="34" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-    </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="47" t="s">
+    <row r="34" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-    </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="47" t="s">
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+    </row>
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-    </row>
-    <row r="37" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+    </row>
+    <row r="37" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="45"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="45"/>
-    </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F38" s="47"/>
+    </row>
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="46" t="s">
         <v>19</v>
       </c>
@@ -4161,13 +4167,13 @@
       <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="45"/>
-    </row>
-    <row r="41" spans="1:8" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F40" s="47"/>
+    </row>
+    <row r="41" spans="1:8" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="32" t="s">
         <v>29</v>
       </c>
@@ -4180,27 +4186,27 @@
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="42" t="s">
+      <c r="G42" s="56" t="s">
         <v>35</v>
       </c>
       <c r="H42" s="28"/>
     </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="26"/>
       <c r="B43" s="27"/>
-      <c r="G43" s="41"/>
+      <c r="G43" s="55"/>
       <c r="H43" s="29"/>
     </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="17">
         <f>IF(G7&gt;0,G7," ")</f>
-        <v>44985</v>
-      </c>
-      <c r="B44" s="45" t="str">
+        <v>45351</v>
+      </c>
+      <c r="B44" s="47" t="str">
         <f>IF(B5&gt;0,B5," ")</f>
         <v/>
       </c>
-      <c r="C44" s="45"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="1" t="s">
         <v>23</v>
       </c>
@@ -4210,7 +4216,7 @@
       </c>
       <c r="H44" s="18"/>
     </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="19"/>
       <c r="D45" s="1" t="s">
         <v>24</v>
@@ -4221,19 +4227,19 @@
       </c>
       <c r="H45" s="18"/>
     </row>
-    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="19"/>
       <c r="D46" s="1" t="s">
         <v>25</v>
       </c>
       <c r="H46" s="18"/>
     </row>
-    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="19"/>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="45"/>
+      <c r="E47" s="47"/>
       <c r="F47" s="24" t="str">
         <f>IF(J31&gt;0,J31," ")</f>
         <v xml:space="preserve"> </v>
@@ -4243,12 +4249,12 @@
       </c>
       <c r="H47" s="18"/>
     </row>
-    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="19"/>
-      <c r="D48" s="45" t="s">
+      <c r="D48" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="45"/>
+      <c r="E48" s="47"/>
       <c r="F48" s="24" t="str">
         <f>IF(K31&gt;0,K31," ")</f>
         <v xml:space="preserve"> </v>
@@ -4258,13 +4264,13 @@
       </c>
       <c r="H48" s="18"/>
     </row>
-    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="19"/>
       <c r="C49" s="30"/>
-      <c r="D49" s="45" t="s">
+      <c r="D49" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="45"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="24" t="str">
         <f>IF(L31&gt;0,L31," ")</f>
         <v xml:space="preserve"> </v>
@@ -4274,33 +4280,33 @@
       </c>
       <c r="H49" s="18"/>
     </row>
-    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="19"/>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="54" t="s">
         <v>34</v>
       </c>
       <c r="C50" s="30"/>
-      <c r="D50" s="45" t="s">
+      <c r="D50" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="45"/>
+      <c r="E50" s="47"/>
       <c r="F50" s="24" t="str">
         <f>IF(M31&gt;0,M31," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G50" s="43" t="s">
+      <c r="G50" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="H50" s="44"/>
-    </row>
-    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H50" s="58"/>
+    </row>
+    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="19"/>
-      <c r="B51" s="41"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="30"/>
       <c r="F51" s="24"/>
       <c r="H51" s="18"/>
     </row>
-    <row r="52" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A52" s="20"/>
       <c r="B52" s="31"/>
       <c r="C52" s="31"/>
@@ -4312,16 +4318,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="D50:E50"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="G42:G43"/>
@@ -4333,12 +4335,16 @@
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="A35:G35"/>
     <mergeCell ref="A36:G36"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -4359,107 +4365,107 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="0.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="0.83203125" style="1" customWidth="1"/>
     <col min="10" max="13" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="48" t="str">
+      <c r="B5" s="42" t="str">
         <f>IF('Month 11'!B5:D5&gt;0,'Month 11'!B5:D5,"")</f>
         <v/>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="F5" s="55" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="F5" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="55"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="37">
         <f>'Month 11'!H5</f>
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="str">
+      <c r="B6" s="42" t="str">
         <f>IF('Month 11'!B6:D6&gt;0,'Month 11'!B6:D6,"")</f>
         <v/>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="51">
         <f>DATE(YEAR('Month 11'!G6),MONTH('Month 11'!G6)+1,1)</f>
-        <v>44986</v>
+        <v>45352</v>
       </c>
       <c r="H6" s="51"/>
     </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="str">
         <f>IF('Month 11'!B7&gt;0,'Month 11'!B7,"")</f>
         <v/>
@@ -4476,12 +4482,12 @@
       </c>
       <c r="G7" s="51">
         <f>DATE(YEAR(G6),MONTH(G6),DAY(DATE(YEAR(G6),MONTH(G6)+1,1)-1))</f>
-        <v>45016</v>
+        <v>45382</v>
       </c>
       <c r="H7" s="51"/>
     </row>
-    <row r="8" spans="1:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:13" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:13" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="34" t="s">
         <v>6</v>
       </c>
@@ -4519,7 +4525,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -4551,7 +4557,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -4583,7 +4589,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -4615,7 +4621,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -4647,7 +4653,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -4679,7 +4685,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4711,7 +4717,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4743,7 +4749,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -4775,7 +4781,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4807,7 +4813,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4839,7 +4845,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4871,7 +4877,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4903,7 +4909,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4935,7 +4941,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -4967,7 +4973,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4999,7 +5005,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5031,7 +5037,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5063,7 +5069,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5095,7 +5101,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5127,7 +5133,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5159,7 +5165,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="9" t="str">
         <f>"Mileage Claim @ " &amp; TEXT(C30*100,0) &amp; "p"</f>
         <v>Mileage Claim @ 45p</v>
@@ -5201,7 +5207,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F31" s="8">
         <f>SUM(F10:F30)</f>
         <v>0</v>
@@ -5231,17 +5237,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-    </row>
-    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+    </row>
+    <row r="33" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B33" s="10"/>
       <c r="C33" s="52" t="s">
         <v>11</v>
@@ -5257,59 +5263,59 @@
       <c r="G33" s="59"/>
       <c r="H33" s="50"/>
     </row>
-    <row r="34" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-    </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="47" t="s">
+    <row r="34" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-    </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="47" t="s">
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+    </row>
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-    </row>
-    <row r="37" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+    </row>
+    <row r="37" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="45"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="45"/>
-    </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F38" s="47"/>
+    </row>
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="46" t="s">
         <v>19</v>
       </c>
@@ -5320,13 +5326,13 @@
       <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="45"/>
-    </row>
-    <row r="41" spans="1:8" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F40" s="47"/>
+    </row>
+    <row r="41" spans="1:8" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="32" t="s">
         <v>29</v>
       </c>
@@ -5339,27 +5345,27 @@
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="42" t="s">
+      <c r="G42" s="56" t="s">
         <v>35</v>
       </c>
       <c r="H42" s="28"/>
     </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="26"/>
       <c r="B43" s="27"/>
-      <c r="G43" s="41"/>
+      <c r="G43" s="55"/>
       <c r="H43" s="29"/>
     </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="17">
         <f>IF(G7&gt;0,G7," ")</f>
-        <v>45016</v>
-      </c>
-      <c r="B44" s="45" t="str">
+        <v>45382</v>
+      </c>
+      <c r="B44" s="47" t="str">
         <f>IF(B5&gt;0,B5," ")</f>
         <v/>
       </c>
-      <c r="C44" s="45"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="1" t="s">
         <v>23</v>
       </c>
@@ -5369,7 +5375,7 @@
       </c>
       <c r="H44" s="18"/>
     </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="19"/>
       <c r="D45" s="1" t="s">
         <v>24</v>
@@ -5380,19 +5386,19 @@
       </c>
       <c r="H45" s="18"/>
     </row>
-    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="19"/>
       <c r="D46" s="1" t="s">
         <v>25</v>
       </c>
       <c r="H46" s="18"/>
     </row>
-    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="19"/>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="45"/>
+      <c r="E47" s="47"/>
       <c r="F47" s="24" t="str">
         <f>IF(J31&gt;0,J31," ")</f>
         <v xml:space="preserve"> </v>
@@ -5402,12 +5408,12 @@
       </c>
       <c r="H47" s="18"/>
     </row>
-    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="19"/>
-      <c r="D48" s="45" t="s">
+      <c r="D48" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="45"/>
+      <c r="E48" s="47"/>
       <c r="F48" s="24" t="str">
         <f>IF(K31&gt;0,K31," ")</f>
         <v xml:space="preserve"> </v>
@@ -5417,13 +5423,13 @@
       </c>
       <c r="H48" s="18"/>
     </row>
-    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="19"/>
       <c r="C49" s="30"/>
-      <c r="D49" s="45" t="s">
+      <c r="D49" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="45"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="24" t="str">
         <f>IF(L31&gt;0,L31," ")</f>
         <v xml:space="preserve"> </v>
@@ -5433,33 +5439,33 @@
       </c>
       <c r="H49" s="18"/>
     </row>
-    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="19"/>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="54" t="s">
         <v>34</v>
       </c>
       <c r="C50" s="30"/>
-      <c r="D50" s="45" t="s">
+      <c r="D50" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="45"/>
+      <c r="E50" s="47"/>
       <c r="F50" s="24" t="str">
         <f>IF(M31&gt;0,M31," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G50" s="43" t="s">
+      <c r="G50" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="H50" s="44"/>
-    </row>
-    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H50" s="58"/>
+    </row>
+    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="19"/>
-      <c r="B51" s="41"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="30"/>
       <c r="F51" s="24"/>
       <c r="H51" s="18"/>
     </row>
-    <row r="52" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A52" s="20"/>
       <c r="B52" s="31"/>
       <c r="C52" s="31"/>
@@ -5471,16 +5477,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="D50:E50"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="G42:G43"/>
@@ -5492,12 +5494,16 @@
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="A35:G35"/>
     <mergeCell ref="A36:G36"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -5519,109 +5525,109 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="0.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="0.83203125" style="1" customWidth="1"/>
     <col min="10" max="13" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="16" width="9.140625" style="1"/>
-    <col min="17" max="17" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="16" width="9.1640625" style="1"/>
+    <col min="17" max="17" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-    </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+    </row>
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="48" t="str">
+      <c r="B5" s="42" t="str">
         <f>IF('Month 01'!B5:D5&gt;0,'Month 01'!B5:D5,"")</f>
         <v/>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="F5" s="55" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="F5" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="55"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="37">
         <f>'Month 01'!H5</f>
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="str">
+      <c r="B6" s="42" t="str">
         <f>IF('Month 01'!B6:D6&gt;0,'Month 01'!B6:D6,"")</f>
         <v/>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="51">
         <f>DATE(YEAR('Month 01'!G6),MONTH('Month 01'!G6)+1,1)</f>
-        <v>44682</v>
+        <v>45047</v>
       </c>
       <c r="H6" s="51"/>
     </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="str">
         <f>IF('Month 01'!B7&gt;0,'Month 01'!B7,"")</f>
         <v/>
@@ -5638,13 +5644,13 @@
       </c>
       <c r="G7" s="51">
         <f>DATE(YEAR(G6),MONTH(G6),DAY(DATE(YEAR(G6),MONTH(G6)+1,1)-1))</f>
-        <v>44712</v>
+        <v>45077</v>
       </c>
       <c r="H7" s="51"/>
       <c r="Q7" s="38"/>
     </row>
-    <row r="8" spans="1:17" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:17" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:17" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="34" t="s">
         <v>6</v>
       </c>
@@ -5682,7 +5688,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -5714,7 +5720,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -5746,7 +5752,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5778,7 +5784,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -5810,7 +5816,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -5842,7 +5848,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -5874,7 +5880,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -5906,7 +5912,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -5938,7 +5944,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -5970,7 +5976,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -6002,7 +6008,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -6034,7 +6040,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -6066,7 +6072,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6098,7 +6104,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -6130,7 +6136,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -6162,7 +6168,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -6194,7 +6200,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6226,7 +6232,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -6258,7 +6264,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -6290,7 +6296,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -6322,7 +6328,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="9" t="str">
         <f>"Mileage Claim @ " &amp; TEXT(C30*100,0) &amp; "p"</f>
         <v>Mileage Claim @ 45p</v>
@@ -6364,7 +6370,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F31" s="8">
         <f>SUM(F10:F30)</f>
         <v>0</v>
@@ -6394,17 +6400,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-    </row>
-    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+    </row>
+    <row r="33" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B33" s="10"/>
       <c r="C33" s="52" t="s">
         <v>11</v>
@@ -6420,59 +6426,59 @@
       <c r="G33" s="49"/>
       <c r="H33" s="50"/>
     </row>
-    <row r="34" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-    </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="47" t="s">
+    <row r="34" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-    </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="47" t="s">
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+    </row>
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-    </row>
-    <row r="37" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+    </row>
+    <row r="37" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="45"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="45"/>
-    </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F38" s="47"/>
+    </row>
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="46" t="s">
         <v>19</v>
       </c>
@@ -6483,13 +6489,13 @@
       <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="45"/>
-    </row>
-    <row r="41" spans="1:8" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F40" s="47"/>
+    </row>
+    <row r="41" spans="1:8" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="32" t="s">
         <v>29</v>
       </c>
@@ -6502,27 +6508,27 @@
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="42" t="s">
+      <c r="G42" s="56" t="s">
         <v>35</v>
       </c>
       <c r="H42" s="28"/>
     </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="26"/>
       <c r="B43" s="27"/>
-      <c r="G43" s="41"/>
+      <c r="G43" s="55"/>
       <c r="H43" s="29"/>
     </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="17">
         <f>IF(G7&gt;0,G7," ")</f>
-        <v>44712</v>
-      </c>
-      <c r="B44" s="45" t="str">
+        <v>45077</v>
+      </c>
+      <c r="B44" s="47" t="str">
         <f>IF(B5&gt;0,B5," ")</f>
         <v/>
       </c>
-      <c r="C44" s="45"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="1" t="s">
         <v>23</v>
       </c>
@@ -6532,7 +6538,7 @@
       </c>
       <c r="H44" s="18"/>
     </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="19"/>
       <c r="D45" s="1" t="s">
         <v>24</v>
@@ -6543,19 +6549,19 @@
       </c>
       <c r="H45" s="18"/>
     </row>
-    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="19"/>
       <c r="D46" s="1" t="s">
         <v>25</v>
       </c>
       <c r="H46" s="18"/>
     </row>
-    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="19"/>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="45"/>
+      <c r="E47" s="47"/>
       <c r="F47" s="24" t="str">
         <f>IF(J31&gt;0,J31," ")</f>
         <v xml:space="preserve"> </v>
@@ -6565,12 +6571,12 @@
       </c>
       <c r="H47" s="18"/>
     </row>
-    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="19"/>
-      <c r="D48" s="45" t="s">
+      <c r="D48" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="45"/>
+      <c r="E48" s="47"/>
       <c r="F48" s="24" t="str">
         <f>IF(K31&gt;0,K31," ")</f>
         <v xml:space="preserve"> </v>
@@ -6580,13 +6586,13 @@
       </c>
       <c r="H48" s="18"/>
     </row>
-    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="19"/>
       <c r="C49" s="30"/>
-      <c r="D49" s="45" t="s">
+      <c r="D49" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="45"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="24" t="str">
         <f>IF(L31&gt;0,L31," ")</f>
         <v xml:space="preserve"> </v>
@@ -6596,33 +6602,33 @@
       </c>
       <c r="H49" s="18"/>
     </row>
-    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="19"/>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="54" t="s">
         <v>34</v>
       </c>
       <c r="C50" s="30"/>
-      <c r="D50" s="45" t="s">
+      <c r="D50" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="45"/>
+      <c r="E50" s="47"/>
       <c r="F50" s="24" t="str">
         <f>IF(M31&gt;0,M31," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G50" s="43" t="s">
+      <c r="G50" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="H50" s="44"/>
-    </row>
-    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H50" s="58"/>
+    </row>
+    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="19"/>
-      <c r="B51" s="41"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="30"/>
       <c r="F51" s="24"/>
       <c r="H51" s="18"/>
     </row>
-    <row r="52" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A52" s="20"/>
       <c r="B52" s="31"/>
       <c r="C52" s="31"/>
@@ -6634,16 +6640,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="D50:E50"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="G42:G43"/>
@@ -6655,12 +6657,16 @@
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="A35:G35"/>
     <mergeCell ref="A36:G36"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -6683,107 +6689,107 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="0.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="0.83203125" style="1" customWidth="1"/>
     <col min="10" max="13" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="48" t="str">
+      <c r="B5" s="42" t="str">
         <f>IF('Month 02'!B5:D5&gt;0,'Month 02'!B5:D5,"")</f>
         <v/>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="F5" s="55" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="F5" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="55"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="37">
         <f>'Month 02'!H5</f>
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="str">
+      <c r="B6" s="42" t="str">
         <f>IF('Month 02'!B6:D6&gt;0,'Month 02'!B6:D6,"")</f>
         <v/>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="51">
         <f>DATE(YEAR('Month 02'!G6),MONTH('Month 02'!G6)+1,DAY('Month 02'!G6))</f>
-        <v>44713</v>
+        <v>45078</v>
       </c>
       <c r="H6" s="51"/>
     </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="str">
         <f>IF('Month 02'!B7&gt;0,'Month 02'!B7,"")</f>
         <v/>
@@ -6800,12 +6806,12 @@
       </c>
       <c r="G7" s="51">
         <f>DATE(YEAR(G6),MONTH(G6),DAY(DATE(YEAR(G6),MONTH(G6)+1,1)-1))</f>
-        <v>44742</v>
+        <v>45107</v>
       </c>
       <c r="H7" s="51"/>
     </row>
-    <row r="8" spans="1:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:13" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:13" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="34" t="s">
         <v>6</v>
       </c>
@@ -6843,7 +6849,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -6875,7 +6881,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -6907,7 +6913,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -6939,7 +6945,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -6971,7 +6977,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -7003,7 +7009,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -7035,7 +7041,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -7067,7 +7073,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -7099,7 +7105,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -7131,7 +7137,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -7163,7 +7169,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -7195,7 +7201,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -7227,7 +7233,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -7259,7 +7265,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -7291,7 +7297,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -7323,7 +7329,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -7355,7 +7361,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -7387,7 +7393,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -7419,7 +7425,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -7451,7 +7457,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -7483,7 +7489,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="9" t="str">
         <f>"Mileage Claim @ " &amp; TEXT(C30*100,0) &amp; "p"</f>
         <v>Mileage Claim @ 45p</v>
@@ -7525,7 +7531,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F31" s="8">
         <f>SUM(F10:F30)</f>
         <v>0</v>
@@ -7555,17 +7561,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-    </row>
-    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+    </row>
+    <row r="33" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B33" s="10"/>
       <c r="C33" s="52" t="s">
         <v>11</v>
@@ -7581,59 +7587,59 @@
       <c r="G33" s="49"/>
       <c r="H33" s="50"/>
     </row>
-    <row r="34" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-    </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="47" t="s">
+    <row r="34" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-    </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="47" t="s">
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+    </row>
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-    </row>
-    <row r="37" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+    </row>
+    <row r="37" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="45"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="45"/>
-    </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F38" s="47"/>
+    </row>
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="46" t="s">
         <v>19</v>
       </c>
@@ -7644,13 +7650,13 @@
       <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="45"/>
-    </row>
-    <row r="41" spans="1:8" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F40" s="47"/>
+    </row>
+    <row r="41" spans="1:8" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="32" t="s">
         <v>29</v>
       </c>
@@ -7663,27 +7669,27 @@
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="42" t="s">
+      <c r="G42" s="56" t="s">
         <v>35</v>
       </c>
       <c r="H42" s="28"/>
     </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="26"/>
       <c r="B43" s="27"/>
-      <c r="G43" s="41"/>
+      <c r="G43" s="55"/>
       <c r="H43" s="29"/>
     </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="17">
         <f>IF(G7&gt;0,G7," ")</f>
-        <v>44742</v>
-      </c>
-      <c r="B44" s="45" t="str">
+        <v>45107</v>
+      </c>
+      <c r="B44" s="47" t="str">
         <f>IF(B5&gt;0,B5," ")</f>
         <v/>
       </c>
-      <c r="C44" s="45"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="1" t="s">
         <v>23</v>
       </c>
@@ -7693,7 +7699,7 @@
       </c>
       <c r="H44" s="18"/>
     </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="19"/>
       <c r="D45" s="1" t="s">
         <v>24</v>
@@ -7704,19 +7710,19 @@
       </c>
       <c r="H45" s="18"/>
     </row>
-    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="19"/>
       <c r="D46" s="1" t="s">
         <v>25</v>
       </c>
       <c r="H46" s="18"/>
     </row>
-    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="19"/>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="45"/>
+      <c r="E47" s="47"/>
       <c r="F47" s="24" t="str">
         <f>IF(J31&gt;0,J31," ")</f>
         <v xml:space="preserve"> </v>
@@ -7726,12 +7732,12 @@
       </c>
       <c r="H47" s="18"/>
     </row>
-    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="19"/>
-      <c r="D48" s="45" t="s">
+      <c r="D48" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="45"/>
+      <c r="E48" s="47"/>
       <c r="F48" s="24" t="str">
         <f>IF(K31&gt;0,K31," ")</f>
         <v xml:space="preserve"> </v>
@@ -7741,13 +7747,13 @@
       </c>
       <c r="H48" s="18"/>
     </row>
-    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="19"/>
       <c r="C49" s="30"/>
-      <c r="D49" s="45" t="s">
+      <c r="D49" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="45"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="24" t="str">
         <f>IF(L31&gt;0,L31," ")</f>
         <v xml:space="preserve"> </v>
@@ -7757,33 +7763,33 @@
       </c>
       <c r="H49" s="18"/>
     </row>
-    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="19"/>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="54" t="s">
         <v>34</v>
       </c>
       <c r="C50" s="30"/>
-      <c r="D50" s="45" t="s">
+      <c r="D50" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="45"/>
+      <c r="E50" s="47"/>
       <c r="F50" s="24" t="str">
         <f>IF(M31&gt;0,M31," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G50" s="43" t="s">
+      <c r="G50" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="H50" s="44"/>
-    </row>
-    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H50" s="58"/>
+    </row>
+    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="19"/>
-      <c r="B51" s="41"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="30"/>
       <c r="F51" s="24"/>
       <c r="H51" s="18"/>
     </row>
-    <row r="52" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A52" s="20"/>
       <c r="B52" s="31"/>
       <c r="C52" s="31"/>
@@ -7795,16 +7801,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="D50:E50"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="G42:G43"/>
@@ -7816,12 +7818,16 @@
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="A35:G35"/>
     <mergeCell ref="A36:G36"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -7843,107 +7849,107 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="0.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="0.83203125" style="1" customWidth="1"/>
     <col min="10" max="13" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="48" t="str">
+      <c r="B5" s="42" t="str">
         <f>IF('Month 03'!B5:D5&gt;0,'Month 03'!B5:D5,"")</f>
         <v/>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="F5" s="55" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="F5" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="55"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="37">
         <f>'Month 03'!H5</f>
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="str">
+      <c r="B6" s="42" t="str">
         <f>IF('Month 03'!B6:D6&gt;0,'Month 03'!B6:D6,"")</f>
         <v/>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="51">
         <f>DATE(YEAR('Month 03'!G6),MONTH('Month 03'!G6)+1,1)</f>
-        <v>44743</v>
+        <v>45108</v>
       </c>
       <c r="H6" s="51"/>
     </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="str">
         <f>IF('Month 03'!B7&gt;0,'Month 03'!B7,"")</f>
         <v/>
@@ -7960,12 +7966,12 @@
       </c>
       <c r="G7" s="51">
         <f>DATE(YEAR(G6),MONTH(G6),DAY(DATE(YEAR(G6),MONTH(G6)+1,1)-1))</f>
-        <v>44773</v>
+        <v>45138</v>
       </c>
       <c r="H7" s="51"/>
     </row>
-    <row r="8" spans="1:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:13" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:13" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="34" t="s">
         <v>6</v>
       </c>
@@ -8003,7 +8009,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -8035,7 +8041,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -8067,7 +8073,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -8099,7 +8105,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -8131,7 +8137,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -8163,7 +8169,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -8195,7 +8201,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -8227,7 +8233,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -8259,7 +8265,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -8291,7 +8297,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -8323,7 +8329,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -8355,7 +8361,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -8387,7 +8393,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -8419,7 +8425,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -8451,7 +8457,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -8483,7 +8489,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -8515,7 +8521,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -8547,7 +8553,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -8579,7 +8585,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -8611,7 +8617,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -8643,7 +8649,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="9" t="str">
         <f>"Mileage Claim @ " &amp; TEXT(C30*100,0) &amp; "p"</f>
         <v>Mileage Claim @ 45p</v>
@@ -8685,7 +8691,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F31" s="8">
         <f>SUM(F10:F30)</f>
         <v>0</v>
@@ -8715,17 +8721,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-    </row>
-    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+    </row>
+    <row r="33" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B33" s="10"/>
       <c r="C33" s="52" t="s">
         <v>11</v>
@@ -8741,59 +8747,59 @@
       <c r="G33" s="49"/>
       <c r="H33" s="50"/>
     </row>
-    <row r="34" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-    </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="47" t="s">
+    <row r="34" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-    </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="47" t="s">
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+    </row>
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-    </row>
-    <row r="37" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+    </row>
+    <row r="37" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="45"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="45"/>
-    </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F38" s="47"/>
+    </row>
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="46" t="s">
         <v>19</v>
       </c>
@@ -8804,13 +8810,13 @@
       <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="45"/>
-    </row>
-    <row r="41" spans="1:8" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F40" s="47"/>
+    </row>
+    <row r="41" spans="1:8" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="32" t="s">
         <v>29</v>
       </c>
@@ -8823,27 +8829,27 @@
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="42" t="s">
+      <c r="G42" s="56" t="s">
         <v>35</v>
       </c>
       <c r="H42" s="28"/>
     </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="26"/>
       <c r="B43" s="27"/>
-      <c r="G43" s="41"/>
+      <c r="G43" s="55"/>
       <c r="H43" s="29"/>
     </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="17">
         <f>IF(G7&gt;0,G7," ")</f>
-        <v>44773</v>
-      </c>
-      <c r="B44" s="45" t="str">
+        <v>45138</v>
+      </c>
+      <c r="B44" s="47" t="str">
         <f>IF(B5&gt;0,B5," ")</f>
         <v/>
       </c>
-      <c r="C44" s="45"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="1" t="s">
         <v>23</v>
       </c>
@@ -8853,7 +8859,7 @@
       </c>
       <c r="H44" s="18"/>
     </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="19"/>
       <c r="D45" s="1" t="s">
         <v>24</v>
@@ -8864,19 +8870,19 @@
       </c>
       <c r="H45" s="18"/>
     </row>
-    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="19"/>
       <c r="D46" s="1" t="s">
         <v>25</v>
       </c>
       <c r="H46" s="18"/>
     </row>
-    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="19"/>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="45"/>
+      <c r="E47" s="47"/>
       <c r="F47" s="24" t="str">
         <f>IF(J31&gt;0,J31," ")</f>
         <v xml:space="preserve"> </v>
@@ -8886,12 +8892,12 @@
       </c>
       <c r="H47" s="18"/>
     </row>
-    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="19"/>
-      <c r="D48" s="45" t="s">
+      <c r="D48" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="45"/>
+      <c r="E48" s="47"/>
       <c r="F48" s="24" t="str">
         <f>IF(K31&gt;0,K31," ")</f>
         <v xml:space="preserve"> </v>
@@ -8901,13 +8907,13 @@
       </c>
       <c r="H48" s="18"/>
     </row>
-    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="19"/>
       <c r="C49" s="30"/>
-      <c r="D49" s="45" t="s">
+      <c r="D49" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="45"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="24" t="str">
         <f>IF(L31&gt;0,L31," ")</f>
         <v xml:space="preserve"> </v>
@@ -8917,33 +8923,33 @@
       </c>
       <c r="H49" s="18"/>
     </row>
-    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="19"/>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="54" t="s">
         <v>34</v>
       </c>
       <c r="C50" s="30"/>
-      <c r="D50" s="45" t="s">
+      <c r="D50" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="45"/>
+      <c r="E50" s="47"/>
       <c r="F50" s="24" t="str">
         <f>IF(M31&gt;0,M31," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G50" s="43" t="s">
+      <c r="G50" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="H50" s="44"/>
-    </row>
-    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H50" s="58"/>
+    </row>
+    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="19"/>
-      <c r="B51" s="41"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="30"/>
       <c r="F51" s="24"/>
       <c r="H51" s="18"/>
     </row>
-    <row r="52" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A52" s="20"/>
       <c r="B52" s="31"/>
       <c r="C52" s="31"/>
@@ -8955,16 +8961,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="D50:E50"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="G42:G43"/>
@@ -8976,12 +8978,16 @@
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="A35:G35"/>
     <mergeCell ref="A36:G36"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -9004,107 +9010,107 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="0.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="0.83203125" style="1" customWidth="1"/>
     <col min="10" max="13" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="48" t="str">
+      <c r="B5" s="42" t="str">
         <f>IF('Month 04'!B5:D5&gt;0,'Month 04'!B5:D5,"")</f>
         <v/>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="F5" s="55" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="F5" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="55"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="37">
         <f>'Month 04'!H5</f>
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="str">
+      <c r="B6" s="42" t="str">
         <f>IF('Month 04'!B6:D6&gt;0,'Month 04'!B6:D6,"")</f>
         <v/>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="51">
         <f>DATE(YEAR('Month 04'!G6),MONTH('Month 04'!G6)+1,1)</f>
-        <v>44774</v>
+        <v>45139</v>
       </c>
       <c r="H6" s="51"/>
     </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="str">
         <f>IF('Month 04'!B7&gt;0,'Month 04'!B7,"")</f>
         <v/>
@@ -9121,12 +9127,12 @@
       </c>
       <c r="G7" s="51">
         <f>DATE(YEAR(G6),MONTH(G6),DAY(DATE(YEAR(G6),MONTH(G6)+1,1)-1))</f>
-        <v>44804</v>
+        <v>45169</v>
       </c>
       <c r="H7" s="51"/>
     </row>
-    <row r="8" spans="1:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:13" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:13" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="34" t="s">
         <v>6</v>
       </c>
@@ -9164,7 +9170,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -9196,7 +9202,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -9228,7 +9234,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -9260,7 +9266,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -9292,7 +9298,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -9324,7 +9330,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -9356,7 +9362,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -9388,7 +9394,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -9420,7 +9426,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -9452,7 +9458,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -9484,7 +9490,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -9516,7 +9522,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -9548,7 +9554,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -9580,7 +9586,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -9612,7 +9618,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -9644,7 +9650,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -9676,7 +9682,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -9708,7 +9714,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -9740,7 +9746,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -9772,7 +9778,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -9804,7 +9810,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="9" t="str">
         <f>"Mileage Claim @ " &amp; TEXT(C30*100,0) &amp; "p"</f>
         <v>Mileage Claim @ 45p</v>
@@ -9846,7 +9852,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F31" s="8">
         <f>SUM(F10:F30)</f>
         <v>0</v>
@@ -9876,17 +9882,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-    </row>
-    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+    </row>
+    <row r="33" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B33" s="10"/>
       <c r="C33" s="52" t="s">
         <v>11</v>
@@ -9902,59 +9908,59 @@
       <c r="G33" s="59"/>
       <c r="H33" s="50"/>
     </row>
-    <row r="34" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-    </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="47" t="s">
+    <row r="34" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-    </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="47" t="s">
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+    </row>
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-    </row>
-    <row r="37" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+    </row>
+    <row r="37" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="45"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="45"/>
-    </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F38" s="47"/>
+    </row>
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="46" t="s">
         <v>19</v>
       </c>
@@ -9965,13 +9971,13 @@
       <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="45"/>
-    </row>
-    <row r="41" spans="1:8" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F40" s="47"/>
+    </row>
+    <row r="41" spans="1:8" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="32" t="s">
         <v>29</v>
       </c>
@@ -9984,27 +9990,27 @@
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="42" t="s">
+      <c r="G42" s="56" t="s">
         <v>35</v>
       </c>
       <c r="H42" s="28"/>
     </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="26"/>
       <c r="B43" s="27"/>
-      <c r="G43" s="41"/>
+      <c r="G43" s="55"/>
       <c r="H43" s="29"/>
     </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="17">
         <f>IF(G7&gt;0,G7," ")</f>
-        <v>44804</v>
-      </c>
-      <c r="B44" s="45" t="str">
+        <v>45169</v>
+      </c>
+      <c r="B44" s="47" t="str">
         <f>IF(B5&gt;0,B5," ")</f>
         <v/>
       </c>
-      <c r="C44" s="45"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="1" t="s">
         <v>23</v>
       </c>
@@ -10014,7 +10020,7 @@
       </c>
       <c r="H44" s="18"/>
     </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="19"/>
       <c r="D45" s="1" t="s">
         <v>24</v>
@@ -10025,19 +10031,19 @@
       </c>
       <c r="H45" s="18"/>
     </row>
-    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="19"/>
       <c r="D46" s="1" t="s">
         <v>25</v>
       </c>
       <c r="H46" s="18"/>
     </row>
-    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="19"/>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="45"/>
+      <c r="E47" s="47"/>
       <c r="F47" s="24" t="str">
         <f>IF(J31&gt;0,J31," ")</f>
         <v xml:space="preserve"> </v>
@@ -10047,12 +10053,12 @@
       </c>
       <c r="H47" s="18"/>
     </row>
-    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="19"/>
-      <c r="D48" s="45" t="s">
+      <c r="D48" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="45"/>
+      <c r="E48" s="47"/>
       <c r="F48" s="24" t="str">
         <f>IF(K31&gt;0,K31," ")</f>
         <v xml:space="preserve"> </v>
@@ -10062,13 +10068,13 @@
       </c>
       <c r="H48" s="18"/>
     </row>
-    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="19"/>
       <c r="C49" s="30"/>
-      <c r="D49" s="45" t="s">
+      <c r="D49" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="45"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="24" t="str">
         <f>IF(L31&gt;0,L31," ")</f>
         <v xml:space="preserve"> </v>
@@ -10078,33 +10084,33 @@
       </c>
       <c r="H49" s="18"/>
     </row>
-    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="19"/>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="54" t="s">
         <v>34</v>
       </c>
       <c r="C50" s="30"/>
-      <c r="D50" s="45" t="s">
+      <c r="D50" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="45"/>
+      <c r="E50" s="47"/>
       <c r="F50" s="24" t="str">
         <f>IF(M31&gt;0,M31," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G50" s="43" t="s">
+      <c r="G50" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="H50" s="44"/>
-    </row>
-    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H50" s="58"/>
+    </row>
+    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="19"/>
-      <c r="B51" s="41"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="30"/>
       <c r="F51" s="24"/>
       <c r="H51" s="18"/>
     </row>
-    <row r="52" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A52" s="20"/>
       <c r="B52" s="31"/>
       <c r="C52" s="31"/>
@@ -10116,16 +10122,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="D50:E50"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="G42:G43"/>
@@ -10137,12 +10139,16 @@
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="A35:G35"/>
     <mergeCell ref="A36:G36"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -10164,107 +10170,107 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="0.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="0.83203125" style="1" customWidth="1"/>
     <col min="10" max="13" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="48" t="str">
+      <c r="B5" s="42" t="str">
         <f>IF('Month 05'!B5:D5&gt;0,'Month 05'!B5:D5,"")</f>
         <v/>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="F5" s="55" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="F5" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="55"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="37">
         <f>'Month 05'!H5</f>
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="str">
+      <c r="B6" s="42" t="str">
         <f>IF('Month 05'!B6:D6&gt;0,'Month 05'!B6:D6,"")</f>
         <v/>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="51">
         <f>DATE(YEAR('Month 05'!G6),MONTH('Month 05'!G6)+1,1)</f>
-        <v>44805</v>
+        <v>45170</v>
       </c>
       <c r="H6" s="51"/>
     </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="str">
         <f>IF('Month 05'!B7&gt;0,'Month 05'!B7,"")</f>
         <v/>
@@ -10281,12 +10287,12 @@
       </c>
       <c r="G7" s="51">
         <f>DATE(YEAR(G6),MONTH(G6),DAY(DATE(YEAR(G6),MONTH(G6)+1,1)-1))</f>
-        <v>44834</v>
+        <v>45199</v>
       </c>
       <c r="H7" s="51"/>
     </row>
-    <row r="8" spans="1:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:13" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:13" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="34" t="s">
         <v>6</v>
       </c>
@@ -10324,7 +10330,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14"/>
       <c r="B10" s="39"/>
       <c r="C10" s="3"/>
@@ -10356,7 +10362,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="39"/>
       <c r="C11" s="3"/>
@@ -10388,7 +10394,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -10420,7 +10426,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -10452,7 +10458,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -10484,7 +10490,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -10516,7 +10522,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -10548,7 +10554,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -10580,7 +10586,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -10612,7 +10618,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -10644,7 +10650,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -10676,7 +10682,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -10708,7 +10714,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -10740,7 +10746,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -10772,7 +10778,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -10804,7 +10810,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -10836,7 +10842,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -10868,7 +10874,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -10900,7 +10906,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -10932,7 +10938,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -10964,7 +10970,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="9" t="str">
         <f>"Mileage Claim @ " &amp; TEXT(C30*100,0) &amp; "p"</f>
         <v>Mileage Claim @ 45p</v>
@@ -11006,7 +11012,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F31" s="8">
         <f>SUM(F10:F30)</f>
         <v>0</v>
@@ -11036,17 +11042,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-    </row>
-    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+    </row>
+    <row r="33" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B33" s="10"/>
       <c r="C33" s="52" t="s">
         <v>11</v>
@@ -11062,59 +11068,59 @@
       <c r="G33" s="60"/>
       <c r="H33" s="50"/>
     </row>
-    <row r="34" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-    </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="47" t="s">
+    <row r="34" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-    </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="47" t="s">
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+    </row>
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-    </row>
-    <row r="37" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+    </row>
+    <row r="37" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="45"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="45"/>
-    </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F38" s="47"/>
+    </row>
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="46" t="s">
         <v>19</v>
       </c>
@@ -11125,13 +11131,13 @@
       <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="45"/>
-    </row>
-    <row r="41" spans="1:8" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F40" s="47"/>
+    </row>
+    <row r="41" spans="1:8" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="32" t="s">
         <v>29</v>
       </c>
@@ -11144,27 +11150,27 @@
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="42" t="s">
+      <c r="G42" s="56" t="s">
         <v>35</v>
       </c>
       <c r="H42" s="28"/>
     </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="26"/>
       <c r="B43" s="27"/>
-      <c r="G43" s="41"/>
+      <c r="G43" s="55"/>
       <c r="H43" s="29"/>
     </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="17">
         <f>IF(G7&gt;0,G7," ")</f>
-        <v>44834</v>
-      </c>
-      <c r="B44" s="45" t="str">
+        <v>45199</v>
+      </c>
+      <c r="B44" s="47" t="str">
         <f>IF(B5&gt;0,B5," ")</f>
         <v/>
       </c>
-      <c r="C44" s="45"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="1" t="s">
         <v>23</v>
       </c>
@@ -11174,7 +11180,7 @@
       </c>
       <c r="H44" s="18"/>
     </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="19"/>
       <c r="D45" s="1" t="s">
         <v>24</v>
@@ -11185,19 +11191,19 @@
       </c>
       <c r="H45" s="18"/>
     </row>
-    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="19"/>
       <c r="D46" s="1" t="s">
         <v>25</v>
       </c>
       <c r="H46" s="18"/>
     </row>
-    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="19"/>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="45"/>
+      <c r="E47" s="47"/>
       <c r="F47" s="24" t="str">
         <f>IF(J31&gt;0,J31," ")</f>
         <v xml:space="preserve"> </v>
@@ -11207,12 +11213,12 @@
       </c>
       <c r="H47" s="18"/>
     </row>
-    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="19"/>
-      <c r="D48" s="45" t="s">
+      <c r="D48" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="45"/>
+      <c r="E48" s="47"/>
       <c r="F48" s="24" t="str">
         <f>IF(K31&gt;0,K31," ")</f>
         <v xml:space="preserve"> </v>
@@ -11222,13 +11228,13 @@
       </c>
       <c r="H48" s="18"/>
     </row>
-    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="19"/>
       <c r="C49" s="30"/>
-      <c r="D49" s="45" t="s">
+      <c r="D49" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="45"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="24" t="str">
         <f>IF(L31&gt;0,L31," ")</f>
         <v xml:space="preserve"> </v>
@@ -11238,33 +11244,33 @@
       </c>
       <c r="H49" s="18"/>
     </row>
-    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="19"/>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="54" t="s">
         <v>34</v>
       </c>
       <c r="C50" s="30"/>
-      <c r="D50" s="45" t="s">
+      <c r="D50" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="45"/>
+      <c r="E50" s="47"/>
       <c r="F50" s="24" t="str">
         <f>IF(M31&gt;0,M31," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G50" s="43" t="s">
+      <c r="G50" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="H50" s="44"/>
-    </row>
-    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H50" s="58"/>
+    </row>
+    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="19"/>
-      <c r="B51" s="41"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="30"/>
       <c r="F51" s="24"/>
       <c r="H51" s="18"/>
     </row>
-    <row r="52" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A52" s="20"/>
       <c r="B52" s="31"/>
       <c r="C52" s="31"/>
@@ -11276,16 +11282,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="D50:E50"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="G42:G43"/>
@@ -11297,12 +11299,16 @@
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="A35:G35"/>
     <mergeCell ref="A36:G36"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -11324,107 +11330,107 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="0.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="0.83203125" style="1" customWidth="1"/>
     <col min="10" max="13" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="48" t="str">
+      <c r="B5" s="42" t="str">
         <f>IF('Month 06'!B5:D5&gt;0,'Month 06'!B5:D5,"")</f>
         <v/>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="F5" s="55" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="F5" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="55"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="37">
         <f>'Month 06'!H5</f>
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="str">
+      <c r="B6" s="42" t="str">
         <f>IF('Month 06'!B6:D6&gt;0,'Month 06'!B6:D6,"")</f>
         <v/>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="51">
         <f>DATE(YEAR('Month 06'!G6),MONTH('Month 06'!G6)+1,1)</f>
-        <v>44835</v>
+        <v>45200</v>
       </c>
       <c r="H6" s="51"/>
     </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="str">
         <f>IF('Month 06'!B7&gt;0,'Month 06'!B7,"")</f>
         <v/>
@@ -11441,12 +11447,12 @@
       </c>
       <c r="G7" s="51">
         <f>DATE(YEAR(G6),MONTH(G6),DAY(DATE(YEAR(G6),MONTH(G6)+1,1)-1))</f>
-        <v>44865</v>
+        <v>45230</v>
       </c>
       <c r="H7" s="51"/>
     </row>
-    <row r="8" spans="1:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:13" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:13" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="34" t="s">
         <v>6</v>
       </c>
@@ -11484,7 +11490,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14"/>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
@@ -11516,7 +11522,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -11548,7 +11554,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -11580,7 +11586,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -11612,7 +11618,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -11644,7 +11650,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -11676,7 +11682,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -11708,7 +11714,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -11740,7 +11746,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -11772,7 +11778,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -11804,7 +11810,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -11836,7 +11842,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -11868,7 +11874,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -11900,7 +11906,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -11932,7 +11938,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -11964,7 +11970,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -11996,7 +12002,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -12028,7 +12034,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -12060,7 +12066,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -12092,7 +12098,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -12124,7 +12130,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="9" t="str">
         <f>"Mileage Claim @ " &amp; TEXT(C30*100,0) &amp; "p"</f>
         <v>Mileage Claim @ 45p</v>
@@ -12166,7 +12172,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F31" s="8">
         <f>SUM(F10:F30)</f>
         <v>0</v>
@@ -12196,17 +12202,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-    </row>
-    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+    </row>
+    <row r="33" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B33" s="10"/>
       <c r="C33" s="52" t="s">
         <v>11</v>
@@ -12222,59 +12228,59 @@
       <c r="G33" s="59"/>
       <c r="H33" s="50"/>
     </row>
-    <row r="34" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-    </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="47" t="s">
+    <row r="34" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-    </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="47" t="s">
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+    </row>
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-    </row>
-    <row r="37" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+    </row>
+    <row r="37" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="45"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="45"/>
-    </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F38" s="47"/>
+    </row>
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="46" t="s">
         <v>19</v>
       </c>
@@ -12285,13 +12291,13 @@
       <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="45"/>
-    </row>
-    <row r="41" spans="1:8" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F40" s="47"/>
+    </row>
+    <row r="41" spans="1:8" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="32" t="s">
         <v>29</v>
       </c>
@@ -12304,27 +12310,27 @@
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="42" t="s">
+      <c r="G42" s="56" t="s">
         <v>35</v>
       </c>
       <c r="H42" s="28"/>
     </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="26"/>
       <c r="B43" s="27"/>
-      <c r="G43" s="41"/>
+      <c r="G43" s="55"/>
       <c r="H43" s="29"/>
     </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="17">
         <f>IF(G7&gt;0,G7," ")</f>
-        <v>44865</v>
-      </c>
-      <c r="B44" s="45" t="str">
+        <v>45230</v>
+      </c>
+      <c r="B44" s="47" t="str">
         <f>IF(B5&gt;0,B5," ")</f>
         <v/>
       </c>
-      <c r="C44" s="45"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="1" t="s">
         <v>23</v>
       </c>
@@ -12334,7 +12340,7 @@
       </c>
       <c r="H44" s="18"/>
     </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="19"/>
       <c r="D45" s="1" t="s">
         <v>24</v>
@@ -12345,19 +12351,19 @@
       </c>
       <c r="H45" s="18"/>
     </row>
-    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="19"/>
       <c r="D46" s="1" t="s">
         <v>25</v>
       </c>
       <c r="H46" s="18"/>
     </row>
-    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="19"/>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="45"/>
+      <c r="E47" s="47"/>
       <c r="F47" s="24" t="str">
         <f>IF(J31&gt;0,J31," ")</f>
         <v xml:space="preserve"> </v>
@@ -12367,12 +12373,12 @@
       </c>
       <c r="H47" s="18"/>
     </row>
-    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="19"/>
-      <c r="D48" s="45" t="s">
+      <c r="D48" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="45"/>
+      <c r="E48" s="47"/>
       <c r="F48" s="24" t="str">
         <f>IF(K31&gt;0,K31," ")</f>
         <v xml:space="preserve"> </v>
@@ -12382,13 +12388,13 @@
       </c>
       <c r="H48" s="18"/>
     </row>
-    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="19"/>
       <c r="C49" s="30"/>
-      <c r="D49" s="45" t="s">
+      <c r="D49" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="45"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="24" t="str">
         <f>IF(L31&gt;0,L31," ")</f>
         <v xml:space="preserve"> </v>
@@ -12398,33 +12404,33 @@
       </c>
       <c r="H49" s="18"/>
     </row>
-    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="19"/>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="54" t="s">
         <v>34</v>
       </c>
       <c r="C50" s="30"/>
-      <c r="D50" s="45" t="s">
+      <c r="D50" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="45"/>
+      <c r="E50" s="47"/>
       <c r="F50" s="24" t="str">
         <f>IF(M31&gt;0,M31," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G50" s="43" t="s">
+      <c r="G50" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="H50" s="44"/>
-    </row>
-    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H50" s="58"/>
+    </row>
+    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="19"/>
-      <c r="B51" s="41"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="30"/>
       <c r="F51" s="24"/>
       <c r="H51" s="18"/>
     </row>
-    <row r="52" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A52" s="20"/>
       <c r="B52" s="31"/>
       <c r="C52" s="31"/>
@@ -12436,16 +12442,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="D50:E50"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="G42:G43"/>
@@ -12457,12 +12459,16 @@
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="A35:G35"/>
     <mergeCell ref="A36:G36"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -12484,107 +12490,107 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="0.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="0.83203125" style="1" customWidth="1"/>
     <col min="10" max="13" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="48" t="str">
+      <c r="B5" s="42" t="str">
         <f>IF('Month 07'!B5:D5&gt;0,'Month 07'!B5:D5,"")</f>
         <v/>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="F5" s="55" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="F5" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="55"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="37">
         <f>'Month 07'!H5</f>
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="str">
+      <c r="B6" s="42" t="str">
         <f>IF('Month 07'!B6:D6&gt;0,'Month 07'!B6:D6,"")</f>
         <v/>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="51">
         <f>DATE(YEAR('Month 07'!G6),MONTH('Month 07'!G6)+1,1)</f>
-        <v>44866</v>
+        <v>45231</v>
       </c>
       <c r="H6" s="51"/>
     </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="str">
         <f>IF('Month 07'!B7&gt;0,'Month 07'!B7,"")</f>
         <v/>
@@ -12601,12 +12607,12 @@
       </c>
       <c r="G7" s="51">
         <f>DATE(YEAR(G6),MONTH(G6),DAY(DATE(YEAR(G6),MONTH(G6)+1,1)-1))</f>
-        <v>44895</v>
+        <v>45260</v>
       </c>
       <c r="H7" s="51"/>
     </row>
-    <row r="8" spans="1:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:13" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:13" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="34" t="s">
         <v>6</v>
       </c>
@@ -12644,7 +12650,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -12676,7 +12682,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -12708,7 +12714,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -12740,7 +12746,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -12772,7 +12778,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -12804,7 +12810,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -12836,7 +12842,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -12868,7 +12874,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -12900,7 +12906,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -12932,7 +12938,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -12964,7 +12970,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -12996,7 +13002,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -13028,7 +13034,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -13060,7 +13066,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -13092,7 +13098,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -13124,7 +13130,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -13156,7 +13162,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -13188,7 +13194,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -13220,7 +13226,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -13252,7 +13258,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -13284,7 +13290,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="9" t="str">
         <f>"Mileage Claim @ " &amp; TEXT(C30*100,0) &amp; "p"</f>
         <v>Mileage Claim @ 45p</v>
@@ -13326,7 +13332,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F31" s="8">
         <f>SUM(F10:F30)</f>
         <v>0</v>
@@ -13356,17 +13362,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-    </row>
-    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+    </row>
+    <row r="33" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B33" s="10"/>
       <c r="C33" s="52" t="s">
         <v>11</v>
@@ -13382,59 +13388,59 @@
       <c r="G33" s="59"/>
       <c r="H33" s="50"/>
     </row>
-    <row r="34" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-    </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="47" t="s">
+    <row r="34" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-    </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="47" t="s">
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+    </row>
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-    </row>
-    <row r="37" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+    </row>
+    <row r="37" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="45"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="45"/>
-    </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F38" s="47"/>
+    </row>
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="46" t="s">
         <v>19</v>
       </c>
@@ -13445,13 +13451,13 @@
       <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="45"/>
-    </row>
-    <row r="41" spans="1:8" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F40" s="47"/>
+    </row>
+    <row r="41" spans="1:8" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="32" t="s">
         <v>29</v>
       </c>
@@ -13464,27 +13470,27 @@
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="42" t="s">
+      <c r="G42" s="56" t="s">
         <v>35</v>
       </c>
       <c r="H42" s="28"/>
     </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="26"/>
       <c r="B43" s="27"/>
-      <c r="G43" s="41"/>
+      <c r="G43" s="55"/>
       <c r="H43" s="29"/>
     </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="17">
         <f>IF(G7&gt;0,G7," ")</f>
-        <v>44895</v>
-      </c>
-      <c r="B44" s="45" t="str">
+        <v>45260</v>
+      </c>
+      <c r="B44" s="47" t="str">
         <f>IF(B5&gt;0,B5," ")</f>
         <v/>
       </c>
-      <c r="C44" s="45"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="1" t="s">
         <v>23</v>
       </c>
@@ -13494,7 +13500,7 @@
       </c>
       <c r="H44" s="18"/>
     </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="19"/>
       <c r="D45" s="1" t="s">
         <v>24</v>
@@ -13505,19 +13511,19 @@
       </c>
       <c r="H45" s="18"/>
     </row>
-    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="19"/>
       <c r="D46" s="1" t="s">
         <v>25</v>
       </c>
       <c r="H46" s="18"/>
     </row>
-    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="19"/>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="45"/>
+      <c r="E47" s="47"/>
       <c r="F47" s="24" t="str">
         <f>IF(J31&gt;0,J31," ")</f>
         <v xml:space="preserve"> </v>
@@ -13527,12 +13533,12 @@
       </c>
       <c r="H47" s="18"/>
     </row>
-    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="19"/>
-      <c r="D48" s="45" t="s">
+      <c r="D48" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="45"/>
+      <c r="E48" s="47"/>
       <c r="F48" s="24" t="str">
         <f>IF(K31&gt;0,K31," ")</f>
         <v xml:space="preserve"> </v>
@@ -13542,13 +13548,13 @@
       </c>
       <c r="H48" s="18"/>
     </row>
-    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="19"/>
       <c r="C49" s="30"/>
-      <c r="D49" s="45" t="s">
+      <c r="D49" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="45"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="24" t="str">
         <f>IF(L31&gt;0,L31," ")</f>
         <v xml:space="preserve"> </v>
@@ -13558,33 +13564,33 @@
       </c>
       <c r="H49" s="18"/>
     </row>
-    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="19"/>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="54" t="s">
         <v>34</v>
       </c>
       <c r="C50" s="30"/>
-      <c r="D50" s="45" t="s">
+      <c r="D50" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="45"/>
+      <c r="E50" s="47"/>
       <c r="F50" s="24" t="str">
         <f>IF(M31&gt;0,M31," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G50" s="43" t="s">
+      <c r="G50" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="H50" s="44"/>
-    </row>
-    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H50" s="58"/>
+    </row>
+    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="19"/>
-      <c r="B51" s="41"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="30"/>
       <c r="F51" s="24"/>
       <c r="H51" s="18"/>
     </row>
-    <row r="52" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A52" s="20"/>
       <c r="B52" s="31"/>
       <c r="C52" s="31"/>
@@ -13596,16 +13602,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="D50:E50"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="G42:G43"/>
@@ -13617,12 +13619,16 @@
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="A35:G35"/>
     <mergeCell ref="A36:G36"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -13644,107 +13650,107 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="0.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="0.83203125" style="1" customWidth="1"/>
     <col min="10" max="13" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="48" t="str">
+      <c r="B5" s="42" t="str">
         <f>IF('Month 08'!B5:D5&gt;0,'Month 08'!B5:D5,"")</f>
         <v/>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="F5" s="55" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="F5" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="55"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="37">
         <f>'Month 08'!H5</f>
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="str">
+      <c r="B6" s="42" t="str">
         <f>IF('Month 08'!B6:D6&gt;0,'Month 08'!B6:D6,"")</f>
         <v/>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="51">
         <f>DATE(YEAR('Month 08'!G6),MONTH('Month 08'!G6)+1,1)</f>
-        <v>44896</v>
+        <v>45261</v>
       </c>
       <c r="H6" s="51"/>
     </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="str">
         <f>IF('Month 08'!B7&gt;0,'Month 08'!B7,"")</f>
         <v/>
@@ -13761,12 +13767,12 @@
       </c>
       <c r="G7" s="51">
         <f>DATE(YEAR(G6),MONTH(G6),DAY(DATE(YEAR(G6),MONTH(G6)+1,1)-1))</f>
-        <v>44926</v>
+        <v>45291</v>
       </c>
       <c r="H7" s="51"/>
     </row>
-    <row r="8" spans="1:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:13" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:13" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="34" t="s">
         <v>6</v>
       </c>
@@ -13804,7 +13810,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -13836,7 +13842,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -13868,7 +13874,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -13900,7 +13906,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -13932,7 +13938,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -13964,7 +13970,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -13996,7 +14002,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -14028,7 +14034,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -14060,7 +14066,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -14092,7 +14098,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -14124,7 +14130,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -14156,7 +14162,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -14188,7 +14194,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -14220,7 +14226,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -14252,7 +14258,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -14284,7 +14290,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -14316,7 +14322,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -14348,7 +14354,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -14380,7 +14386,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -14412,7 +14418,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -14444,7 +14450,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="9" t="str">
         <f>"Mileage Claim @ " &amp; TEXT(C30*100,0) &amp; "p"</f>
         <v>Mileage Claim @ 45p</v>
@@ -14486,7 +14492,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F31" s="8">
         <f>SUM(F10:F30)</f>
         <v>0</v>
@@ -14516,17 +14522,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-    </row>
-    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+    </row>
+    <row r="33" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B33" s="10"/>
       <c r="C33" s="52" t="s">
         <v>11</v>
@@ -14542,59 +14548,59 @@
       <c r="G33" s="59"/>
       <c r="H33" s="50"/>
     </row>
-    <row r="34" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-    </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="47" t="s">
+    <row r="34" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-    </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="47" t="s">
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+    </row>
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-    </row>
-    <row r="37" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+    </row>
+    <row r="37" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="45"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="45"/>
-    </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F38" s="47"/>
+    </row>
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="46" t="s">
         <v>19</v>
       </c>
@@ -14605,13 +14611,13 @@
       <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="45"/>
-    </row>
-    <row r="41" spans="1:8" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F40" s="47"/>
+    </row>
+    <row r="41" spans="1:8" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="32" t="s">
         <v>29</v>
       </c>
@@ -14624,27 +14630,27 @@
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="42" t="s">
+      <c r="G42" s="56" t="s">
         <v>35</v>
       </c>
       <c r="H42" s="28"/>
     </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="26"/>
       <c r="B43" s="27"/>
-      <c r="G43" s="41"/>
+      <c r="G43" s="55"/>
       <c r="H43" s="29"/>
     </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="17">
         <f>IF(G7&gt;0,G7," ")</f>
-        <v>44926</v>
-      </c>
-      <c r="B44" s="45" t="str">
+        <v>45291</v>
+      </c>
+      <c r="B44" s="47" t="str">
         <f>IF(B5&gt;0,B5," ")</f>
         <v/>
       </c>
-      <c r="C44" s="45"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="1" t="s">
         <v>23</v>
       </c>
@@ -14654,7 +14660,7 @@
       </c>
       <c r="H44" s="18"/>
     </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="19"/>
       <c r="D45" s="1" t="s">
         <v>24</v>
@@ -14665,19 +14671,19 @@
       </c>
       <c r="H45" s="18"/>
     </row>
-    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="19"/>
       <c r="D46" s="1" t="s">
         <v>25</v>
       </c>
       <c r="H46" s="18"/>
     </row>
-    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="19"/>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="45"/>
+      <c r="E47" s="47"/>
       <c r="F47" s="24" t="str">
         <f>IF(J31&gt;0,J31," ")</f>
         <v xml:space="preserve"> </v>
@@ -14687,12 +14693,12 @@
       </c>
       <c r="H47" s="18"/>
     </row>
-    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="19"/>
-      <c r="D48" s="45" t="s">
+      <c r="D48" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="45"/>
+      <c r="E48" s="47"/>
       <c r="F48" s="24" t="str">
         <f>IF(K31&gt;0,K31," ")</f>
         <v xml:space="preserve"> </v>
@@ -14702,13 +14708,13 @@
       </c>
       <c r="H48" s="18"/>
     </row>
-    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="19"/>
       <c r="C49" s="30"/>
-      <c r="D49" s="45" t="s">
+      <c r="D49" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="45"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="24" t="str">
         <f>IF(L31&gt;0,L31," ")</f>
         <v xml:space="preserve"> </v>
@@ -14718,33 +14724,33 @@
       </c>
       <c r="H49" s="18"/>
     </row>
-    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="19"/>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="54" t="s">
         <v>34</v>
       </c>
       <c r="C50" s="30"/>
-      <c r="D50" s="45" t="s">
+      <c r="D50" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="45"/>
+      <c r="E50" s="47"/>
       <c r="F50" s="24" t="str">
         <f>IF(M31&gt;0,M31," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G50" s="43" t="s">
+      <c r="G50" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="H50" s="44"/>
-    </row>
-    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H50" s="58"/>
+    </row>
+    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="19"/>
-      <c r="B51" s="41"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="30"/>
       <c r="F51" s="24"/>
       <c r="H51" s="18"/>
     </row>
-    <row r="52" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A52" s="20"/>
       <c r="B52" s="31"/>
       <c r="C52" s="31"/>
@@ -14756,16 +14762,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="D50:E50"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="G42:G43"/>
@@ -14777,12 +14779,16 @@
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="A35:G35"/>
     <mergeCell ref="A36:G36"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
